--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -77,42 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>IAN ISSAID</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
   </si>
 </sst>
 </file>
@@ -971,7 +935,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,121 +968,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920426</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
@@ -652,16 +652,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75.68000000000001</v>
+      </c>
+      <c r="H2">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -675,16 +678,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.67</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,16 +704,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>88.89</v>
+      </c>
+      <c r="H4">
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -721,16 +730,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>65.70999999999999</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -744,16 +756,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>65.70999999999999</v>
+      </c>
+      <c r="H6">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -812,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -838,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>86.11</v>
+        <v>91.67</v>
       </c>
       <c r="H3">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -864,16 +879,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -890,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>68.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -916,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>71.43000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
   </si>
 </sst>
 </file>
@@ -950,7 +968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -983,6 +1001,52 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
